--- a/TestData/JTPS-DEVQA/ProcessModeTypes.xlsx
+++ b/TestData/JTPS-DEVQA/ProcessModeTypes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="113">
   <si>
     <t>EOF</t>
   </si>
@@ -347,6 +347,12 @@
   </si>
   <si>
     <t>wnd_ProcessModeTypes</t>
+  </si>
+  <si>
+    <t>TS001</t>
+  </si>
+  <si>
+    <t>Process Mode Type</t>
   </si>
 </sst>
 </file>
@@ -974,7 +980,7 @@
   <dimension ref="A1:X71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="C2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1080,8 +1086,12 @@
       <c r="A2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="8"/>
+      <c r="B2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>112</v>
+      </c>
       <c r="D2" s="8"/>
       <c r="E2" s="7" t="s">
         <v>7</v>
@@ -1126,8 +1136,12 @@
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="8"/>
+      <c r="B3" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>112</v>
+      </c>
       <c r="D3" s="8"/>
       <c r="E3" s="7" t="s">
         <v>7</v>

--- a/TestData/JTPS-DEVQA/ProcessModeTypes.xlsx
+++ b/TestData/JTPS-DEVQA/ProcessModeTypes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="113">
   <si>
     <t>EOF</t>
   </si>
@@ -139,9 +139,6 @@
     <t>5.3.0.3</t>
   </si>
   <si>
-    <t>allrows,value^,Description^Automation,short description^Automation</t>
-  </si>
-  <si>
     <t>5.2.6</t>
   </si>
   <si>
@@ -340,12 +337,6 @@
     <t>Process Mode Types,setproperty,innertext</t>
   </si>
   <si>
-    <t>allrows,value^XZY</t>
-  </si>
-  <si>
-    <t>XZY</t>
-  </si>
-  <si>
     <t>wnd_ProcessModeTypes</t>
   </si>
   <si>
@@ -353,6 +344,15 @@
   </si>
   <si>
     <t>Process Mode Type</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>allrows,value^X,Description^Automation,short description^Automation</t>
+  </si>
+  <si>
+    <t>allrows,value^X</t>
   </si>
 </sst>
 </file>
@@ -979,15 +979,15 @@
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:X71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="B2:C2"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -1010,94 +1010,94 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C1" s="38" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D1" s="38" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E1" s="38" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F1" s="38" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G1" s="38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H1" s="38" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I1" s="38" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J1" s="38" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K1" s="38" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L1" s="38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M1" s="37" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N1" s="37" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O1" s="38" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P1" s="37" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q1" s="37" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R1" s="37" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S1" s="37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T1" s="37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U1" s="37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="V1" s="37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="W1" s="37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="X1" s="36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="7" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>7</v>
@@ -1106,16 +1106,16 @@
         <v>6</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L2" s="35" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
@@ -1129,7 +1129,7 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
@@ -1137,17 +1137,17 @@
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="7" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>7</v>
@@ -1170,7 +1170,7 @@
         <v>2</v>
       </c>
       <c r="O3" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P3" s="11"/>
       <c r="Q3" s="3"/>
@@ -1191,7 +1191,7 @@
         <v>7</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>7</v>
@@ -1200,7 +1200,7 @@
         <v>6</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -1233,7 +1233,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>7</v>
@@ -1256,7 +1256,7 @@
         <v>2</v>
       </c>
       <c r="O5" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
@@ -1276,7 +1276,7 @@
         <v>7</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>7</v>
@@ -1300,7 +1300,7 @@
         <v>21</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
@@ -1320,7 +1320,7 @@
         <v>7</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>7</v>
@@ -1329,12 +1329,12 @@
         <v>6</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J7" s="17"/>
       <c r="K7" s="17"/>
       <c r="L7" s="34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>3</v>
@@ -1366,7 +1366,7 @@
         <v>7</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>7</v>
@@ -1389,7 +1389,7 @@
         <v>2</v>
       </c>
       <c r="O8" s="33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
@@ -1409,7 +1409,7 @@
         <v>7</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>7</v>
@@ -1430,7 +1430,7 @@
         <v>2</v>
       </c>
       <c r="O9" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="P9" s="33" t="s">
         <v>1</v>
@@ -1453,7 +1453,7 @@
         <v>7</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>7</v>
@@ -1462,7 +1462,7 @@
         <v>6</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J10" s="29"/>
       <c r="K10" s="29"/>
@@ -1495,7 +1495,7 @@
         <v>7</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>7</v>
@@ -1541,7 +1541,7 @@
         <v>7</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>7</v>
@@ -1564,7 +1564,7 @@
         <v>2</v>
       </c>
       <c r="O12" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="P12" s="11" t="s">
         <v>9</v>
@@ -1587,7 +1587,7 @@
         <v>7</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>7</v>
@@ -1610,7 +1610,7 @@
         <v>2</v>
       </c>
       <c r="O13" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="P13" s="28" t="s">
         <v>14</v>
@@ -1633,7 +1633,7 @@
         <v>7</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>7</v>
@@ -1656,7 +1656,7 @@
         <v>2</v>
       </c>
       <c r="O14" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="P14" s="11" t="s">
         <v>33</v>
@@ -1676,10 +1676,10 @@
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F15" s="27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G15" s="27" t="s">
         <v>7</v>
@@ -1702,10 +1702,10 @@
         <v>2</v>
       </c>
       <c r="O15" s="23" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="P15" s="30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q15" s="23"/>
       <c r="R15" s="23"/>
@@ -1715,7 +1715,7 @@
       <c r="V15" s="22"/>
       <c r="W15" s="22"/>
       <c r="X15" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
@@ -1727,7 +1727,7 @@
         <v>7</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>7</v>
@@ -1741,7 +1741,7 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M16" s="3" t="s">
         <v>3</v>
@@ -1750,10 +1750,10 @@
         <v>2</v>
       </c>
       <c r="O16" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="P16" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q16" s="10"/>
       <c r="R16" s="10"/>
@@ -1773,7 +1773,7 @@
         <v>7</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>7</v>
@@ -1796,10 +1796,10 @@
         <v>2</v>
       </c>
       <c r="O17" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="P17" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q17" s="10"/>
       <c r="R17" s="10"/>
@@ -1819,7 +1819,7 @@
         <v>7</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>7</v>
@@ -1842,10 +1842,10 @@
         <v>2</v>
       </c>
       <c r="O18" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="P18" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q18" s="10"/>
       <c r="R18" s="10"/>
@@ -1865,7 +1865,7 @@
         <v>7</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>7</v>
@@ -1888,10 +1888,10 @@
         <v>2</v>
       </c>
       <c r="O19" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="P19" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q19" s="10"/>
       <c r="R19" s="10"/>
@@ -1911,7 +1911,7 @@
         <v>7</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>7</v>
@@ -1925,7 +1925,7 @@
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
@@ -1934,10 +1934,10 @@
         <v>2</v>
       </c>
       <c r="O20" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="P20" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q20" s="10"/>
       <c r="R20" s="10"/>
@@ -1957,7 +1957,7 @@
         <v>7</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>7</v>
@@ -1966,7 +1966,7 @@
         <v>6</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J21" s="29"/>
       <c r="K21" s="29"/>
@@ -1999,7 +1999,7 @@
         <v>7</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>7</v>
@@ -2013,7 +2013,7 @@
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
@@ -2022,10 +2022,10 @@
         <v>2</v>
       </c>
       <c r="O22" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="P22" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q22" s="10"/>
       <c r="R22" s="10"/>
@@ -2042,10 +2042,10 @@
       <c r="C23" s="8"/>
       <c r="D23" s="13"/>
       <c r="E23" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F23" s="27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G23" s="27" t="s">
         <v>7</v>
@@ -2068,7 +2068,7 @@
         <v>2</v>
       </c>
       <c r="O23" s="23" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="P23" s="24" t="s">
         <v>33</v>
@@ -2088,10 +2088,10 @@
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
       <c r="E24" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F24" s="27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G24" s="27" t="s">
         <v>7</v>
@@ -2100,12 +2100,12 @@
         <v>6</v>
       </c>
       <c r="I24" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
@@ -2114,7 +2114,7 @@
         <v>2</v>
       </c>
       <c r="O24" s="23" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="P24" s="24" t="s">
         <v>15</v>
@@ -2134,10 +2134,10 @@
       <c r="C25" s="8"/>
       <c r="D25" s="13"/>
       <c r="E25" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F25" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G25" s="27" t="s">
         <v>7</v>
@@ -2165,7 +2165,7 @@
       <c r="V25" s="22"/>
       <c r="W25" s="22"/>
       <c r="X25" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
@@ -2177,7 +2177,7 @@
         <v>7</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>7</v>
@@ -2200,7 +2200,7 @@
         <v>2</v>
       </c>
       <c r="O26" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="P26" s="11" t="s">
         <v>33</v>
@@ -2237,7 +2237,7 @@
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
@@ -2246,7 +2246,7 @@
         <v>2</v>
       </c>
       <c r="O27" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="P27" s="11" t="s">
         <v>17</v>
@@ -2282,7 +2282,9 @@
       </c>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
-      <c r="L28" s="19"/>
+      <c r="L28" s="19" t="s">
+        <v>110</v>
+      </c>
       <c r="M28" s="3" t="s">
         <v>3</v>
       </c>
@@ -2290,7 +2292,7 @@
         <v>2</v>
       </c>
       <c r="O28" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="P28" s="11" t="s">
         <v>32</v>
@@ -2327,7 +2329,7 @@
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>3</v>
@@ -2336,7 +2338,7 @@
         <v>2</v>
       </c>
       <c r="O29" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="P29" s="11" t="s">
         <v>37</v>
@@ -2382,7 +2384,7 @@
         <v>2</v>
       </c>
       <c r="O30" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="P30" s="11" t="s">
         <v>9</v>
@@ -2463,7 +2465,7 @@
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
@@ -2472,7 +2474,7 @@
         <v>2</v>
       </c>
       <c r="O32" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="P32" s="11" t="s">
         <v>32</v>
@@ -2518,7 +2520,7 @@
         <v>2</v>
       </c>
       <c r="O33" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="P33" s="11" t="s">
         <v>1</v>
@@ -2555,7 +2557,7 @@
       <c r="J34" s="17"/>
       <c r="K34" s="17"/>
       <c r="L34" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M34" s="3" t="s">
         <v>3</v>
@@ -2633,7 +2635,7 @@
         <v>7</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>7</v>
@@ -2647,7 +2649,7 @@
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
       <c r="L36" s="14" t="s">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="M36" s="3" t="s">
         <v>3</v>
@@ -2656,7 +2658,7 @@
         <v>2</v>
       </c>
       <c r="O36" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="P36" s="11" t="s">
         <v>15</v>
@@ -2702,7 +2704,7 @@
         <v>2</v>
       </c>
       <c r="O37" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="P37" s="11" t="s">
         <v>33</v>
@@ -2748,7 +2750,7 @@
         <v>2</v>
       </c>
       <c r="O38" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="P38" s="11" t="s">
         <v>17</v>
@@ -2785,7 +2787,7 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="19" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M39" s="3" t="s">
         <v>3</v>
@@ -2794,7 +2796,7 @@
         <v>2</v>
       </c>
       <c r="O39" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="P39" s="11" t="s">
         <v>32</v>
@@ -2840,7 +2842,7 @@
         <v>2</v>
       </c>
       <c r="O40" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="P40" s="11" t="s">
         <v>37</v>
@@ -2886,7 +2888,7 @@
         <v>2</v>
       </c>
       <c r="O41" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="P41" s="11" t="s">
         <v>9</v>
@@ -2932,7 +2934,7 @@
         <v>2</v>
       </c>
       <c r="O42" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="P42" s="11" t="s">
         <v>35</v>
@@ -2978,7 +2980,7 @@
         <v>2</v>
       </c>
       <c r="O43" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="P43" s="11" t="s">
         <v>1</v>
@@ -3015,7 +3017,7 @@
       <c r="J44" s="17"/>
       <c r="K44" s="17"/>
       <c r="L44" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M44" s="3" t="s">
         <v>3</v>
@@ -3116,7 +3118,7 @@
         <v>2</v>
       </c>
       <c r="O46" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="P46" s="11" t="s">
         <v>33</v>
@@ -3153,7 +3155,7 @@
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
       <c r="L47" s="19" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
@@ -3162,7 +3164,7 @@
         <v>2</v>
       </c>
       <c r="O47" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="P47" s="11" t="s">
         <v>32</v>
@@ -3208,7 +3210,7 @@
         <v>2</v>
       </c>
       <c r="O48" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="P48" s="11" t="s">
         <v>9</v>
@@ -3254,7 +3256,7 @@
         <v>2</v>
       </c>
       <c r="O49" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="P49" s="11" t="s">
         <v>31</v>
@@ -3300,7 +3302,7 @@
         <v>2</v>
       </c>
       <c r="O50" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="P50" s="11" t="s">
         <v>30</v>
@@ -3346,7 +3348,7 @@
         <v>2</v>
       </c>
       <c r="O51" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="P51" s="11" t="s">
         <v>1</v>
@@ -3383,7 +3385,7 @@
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
       <c r="L52" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
@@ -3484,7 +3486,7 @@
         <v>2</v>
       </c>
       <c r="O54" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="P54" s="11" t="s">
         <v>17</v>
@@ -3530,7 +3532,7 @@
         <v>2</v>
       </c>
       <c r="O55" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="P55" s="11" t="s">
         <v>1</v>
@@ -3576,7 +3578,7 @@
         <v>2</v>
       </c>
       <c r="O56" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="P56" s="10"/>
       <c r="Q56" s="3"/>
@@ -3611,7 +3613,7 @@
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
       <c r="L57" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
@@ -3712,7 +3714,7 @@
         <v>2</v>
       </c>
       <c r="O59" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="P59" s="11" t="s">
         <v>17</v>
@@ -3758,7 +3760,7 @@
         <v>2</v>
       </c>
       <c r="O60" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="P60" s="11" t="s">
         <v>9</v>
@@ -3848,7 +3850,7 @@
         <v>2</v>
       </c>
       <c r="O62" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="P62" s="11" t="s">
         <v>1</v>
@@ -3885,7 +3887,7 @@
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
       <c r="L63" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M63" s="3" t="s">
         <v>3</v>
@@ -3986,7 +3988,7 @@
         <v>2</v>
       </c>
       <c r="O65" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="P65" s="11" t="s">
         <v>17</v>
@@ -4023,7 +4025,7 @@
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
       <c r="L66" s="14" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
@@ -4032,7 +4034,7 @@
         <v>2</v>
       </c>
       <c r="O66" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="P66" s="11" t="s">
         <v>15</v>
@@ -4078,7 +4080,7 @@
         <v>2</v>
       </c>
       <c r="O67" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="P67" s="11" t="s">
         <v>14</v>
@@ -4169,7 +4171,7 @@
         <v>2</v>
       </c>
       <c r="O69" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="P69" s="11" t="s">
         <v>9</v>
@@ -4215,7 +4217,7 @@
         <v>2</v>
       </c>
       <c r="O70" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="P70" s="11" t="s">
         <v>1</v>

--- a/TestData/JTPS-DEVQA/ProcessModeTypes.xlsx
+++ b/TestData/JTPS-DEVQA/ProcessModeTypes.xlsx
@@ -979,8 +979,8 @@
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:X71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1205,7 +1205,7 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>3</v>

--- a/TestData/JTPS-DEVQA/ProcessModeTypes.xlsx
+++ b/TestData/JTPS-DEVQA/ProcessModeTypes.xlsx
@@ -980,7 +980,7 @@
   <dimension ref="A1:X71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
